--- a/AQUARELA-solucao.xlsx
+++ b/AQUARELA-solucao.xlsx
@@ -142,7 +142,7 @@
     <t>S</t>
   </si>
   <si>
-    <t>0001-00_AQUARELA_COLEGIO_B2B</t>
+    <t>0100-10_AQUARELA</t>
   </si>
 </sst>
 </file>
